--- a/app/helper/excel/2020_02_21_covid19_country.xlsx
+++ b/app/helper/excel/2020_02_21_covid19_country.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="2020_02_21_covid19_country" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,6 +15,7 @@
     <sheet name="2020_02_26_covid19" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="2020_02_27_covid19" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="2020_02_29_covid19" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="2020_03_01_covid19" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="286">
   <si>
     <t xml:space="preserve">country</t>
   </si>
@@ -317,6 +318,573 @@
   </si>
   <si>
     <t xml:space="preserve">San Marino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">စဉ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">နိုင်ငံ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">စုစုပေါင်းကူးစက်ဖြစ်စဉ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ထပ်မံကူးစက်မှုဖြစ်စဉ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">စုစုပေါင်းသေဆုံးမှု</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ထပ်မံသေဆုံးမှု</t>
+  </si>
+  <si>
+    <t xml:space="preserve">လက်ရှိကူးစက်ထားမှု</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ရောဂါပျောက်ကင်းမှု</t>
+  </si>
+  <si>
+    <t xml:space="preserve">စိုးရိမ်ရသောအခြေအနေ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဖြစ်ပွားရာဒေသများ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">တရုတ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၇၉၈၂၈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၅၇၇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၈၇၀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၃၅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၃၄၈၄၄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၄၂၁၁၄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၇၃၆၅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">အာရှ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">တောင်ကိုးရီးယား</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၃၇၃၆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၅၈၆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၃၆၈၅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၃၀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">အီတလီ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၆၉၄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၅၆၆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၃၄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၅၇၇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၈၃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၄၀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဥရောပ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">အီရန်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၉၈၇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၃၈၅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၅၄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၇၄၉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၇၅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">အရှေ့အလယ်ပိုင်း</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၇၀၅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၆၈၈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၃၆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">အာရှ(ယိုကိုဟားမာဆိပ်ကမ်း) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">၆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဂျပန်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၅၂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၁၄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၃၂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဂျာမနီ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၂၉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၅၀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၁၃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">စင်္ကာပူ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၀၆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၇၄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">အရှေ့တောင်အာရှ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ပြင်သစ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၀၄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၉၀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဟောင်ကောင်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၀၀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၆၂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">စပိန်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၇၉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၇၇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">အမေရိကန်ပြည်ထောင်စု</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၇၁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၆၁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">မြောက်အမေရိက</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဘာရိန်း</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၄၇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကူဝိတ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၄၆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ထိုင်း</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၄၂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ထိုင်ဝမ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၄၀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဗြိတိန်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">မလေးရှား</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဩစတေးလျ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">အာရပ်စော်ဘွားများပြည်ထောင်စု</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကနေဒါ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">အီရတ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဆွတ်ဇာလန်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">နော်ဝေး</t>
+  </si>
+  <si>
+    <t xml:space="preserve">စကင်ဒီနေးဗီးယန်း</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဗီယက်နမ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဩစတြီးယား</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဆွီဒင်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">မကာအို</t>
+  </si>
+  <si>
+    <t xml:space="preserve">လက်ဘနွန်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">နယ်သာလန်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၃၁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ခရိုအေးရှား</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဂရိ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၃၃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">အစ္စရေး</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဖင်လန်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">အိုမန်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">မက်ဆီကို</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၃၇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ပါကစ္စတန်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၃၈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဖိလစ်ပိုင်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၃၉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">အဇာဘိုင်ဂျန်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ချက်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၄၁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဒိန်းမတ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဂျော်ဂျီယာ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၄၃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">အိန္ဒိယ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၄၄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကာတာ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၄၅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ရိုမေးနီးယား</t>
+  </si>
+  <si>
+    <t xml:space="preserve">အယ်ဂျီးနီးယား</t>
+  </si>
+  <si>
+    <t xml:space="preserve">အာဖရိက</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဘယ်ဂျီယန်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၄၈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဘရာဇီး</t>
+  </si>
+  <si>
+    <t xml:space="preserve">တောင်အမေရိက</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၄၉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ရုရှ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">အာဖကန်နစ္စတန်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၅၁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဘီလာရု</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၅၂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကမ္ဘောဒီးယား</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၅၃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဒိုမီနီကန်သမ္မတနိုင်ငံ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ကာရေးဘီးယန်း</t>
+  </si>
+  <si>
+    <t xml:space="preserve">အီကွေဒေါ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၅၅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">အီဂျစ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၅၆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">အက်စတိုးနီးယား</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဘော်တစ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၅၇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">အိုက်စလန်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၅၈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">အိုင်ယာလန်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၅၉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">လစ်သူရေးနီးယား</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၆၀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">လူဇင်ဘတ်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">မြောက်မက်ဆီဒိုးနီးယား</t>
+  </si>
+  <si>
+    <t xml:space="preserve">မိုနာကို</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၆၃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">နီပေါ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၆၄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">နယူးဇီလန်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၆၅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">နိုင်ဂျီးရီးယား</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၆၆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဆန်မာရီနို</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၆၇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">သီရိလင်္ကာ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၆၈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">အာမေးနီးယား</t>
   </si>
 </sst>
 </file>
@@ -416,10 +984,10 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="A1:H61"/>
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.42"/>
@@ -908,10 +1476,10 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A1:H61"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.36"/>
@@ -1820,10 +2388,10 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="1" sqref="A1:H61 I15"/>
+      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.58"/>
@@ -2836,10 +3404,10 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M15" activeCellId="1" sqref="A1:H61 M15"/>
+      <selection pane="topLeft" activeCell="M15" activeCellId="0" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -3952,10 +4520,10 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J24" activeCellId="1" sqref="A1:H61 J24"/>
+      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -5146,10 +5714,10 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:H61"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -6521,1596 +7089,3828 @@
   </sheetPr>
   <dimension ref="A1:H61"/>
   <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>78832</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>335</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>2788</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>36455</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>7952</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2337</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>571</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>705</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>655</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>388</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>226</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J69"/>
+  <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:H61"/>
+      <selection pane="topLeft" activeCell="L19" activeCellId="0" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>3</v>
+        <v>104</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>78832</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>335</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>2788</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>36455</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>7952</v>
+        <v>107</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>113</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>5</v>
+        <v>114</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>2337</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>571</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>10</v>
+        <v>117</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>123</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>7</v>
+        <v>124</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>705</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>34</v>
+        <v>126</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>132</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>71</v>
+        <v>133</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>655</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>42</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>35</v>
+        <v>122</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>141</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>22</v>
+        <v>142</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>388</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>143</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>34</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>73</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>0</v>
+        <v>131</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>147</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>20</v>
+        <v>125</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>226</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>13</v>
+        <v>150</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>153</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>7</v>
+        <v>154</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>66</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>8</v>
+        <v>146</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>159</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>10</v>
+        <v>160</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>93</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>6</v>
+        <v>161</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>154</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>7</v>
+        <v>164</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>2</v>
+        <v>166</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>169</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>22</v>
+        <v>170</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>1</v>
+        <v>125</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>173</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>14</v>
+        <v>148</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>0</v>
+        <v>140</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>176</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>42</v>
+        <v>117</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>1</v>
+        <v>170</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>179</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>22</v>
+        <v>166</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>2</v>
+        <v>181</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>183</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>10</v>
+        <v>143</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>0</v>
+        <v>184</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>186</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>26</v>
+        <v>143</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>34</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>1</v>
+        <v>187</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>140</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>7</v>
+        <v>124</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>2</v>
+        <v>160</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>192</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>22</v>
+        <v>170</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>0</v>
+        <v>193</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>192</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>7</v>
+        <v>161</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>0</v>
+        <v>195</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>146</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>18</v>
+        <v>198</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>125</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>22</v>
+        <v>187</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>2</v>
+        <v>201</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>160</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>26</v>
+        <v>131</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <v>0</v>
+        <v>121</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>160</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>10</v>
+        <v>122</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>0</v>
+        <v>198</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>155</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>22</v>
+        <v>143</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>195</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>30</v>
+        <v>107</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <v>0</v>
+        <v>207</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>193</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>5</v>
+        <v>143</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <v>0</v>
+        <v>210</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>42</v>
+        <v>160</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>184</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>72</v>
+        <v>143</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="0" t="n">
-        <v>0</v>
+        <v>192</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>181</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>22</v>
+        <v>143</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="0" t="n">
-        <v>0</v>
+        <v>214</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>122</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>22</v>
+        <v>150</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="0" t="n">
-        <v>0</v>
+        <v>197</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>125</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>22</v>
+        <v>143</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="0" t="n">
-        <v>0</v>
+        <v>124</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>125</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>26</v>
+        <v>143</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="0" t="n">
-        <v>0</v>
+        <v>218</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>146</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>86</v>
+        <v>143</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G33" s="0" t="n">
-        <v>0</v>
+        <v>154</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>146</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>10</v>
+        <v>143</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G34" s="0" t="n">
-        <v>0</v>
+        <v>221</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>150</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>5</v>
+        <v>143</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>131</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>42</v>
+        <v>107</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="0" t="n">
-        <v>0</v>
+        <v>112</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>131</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>22</v>
+        <v>143</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="0" t="n">
-        <v>0</v>
+        <v>148</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>122</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>22</v>
+        <v>143</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="0" t="n">
-        <v>0</v>
+        <v>226</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>122</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>83</v>
+        <v>143</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="0" t="n">
-        <v>0</v>
+        <v>228</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>22</v>
+        <v>117</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" s="0" t="n">
-        <v>0</v>
+        <v>230</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>26</v>
+        <v>143</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G41" s="0" t="n">
-        <v>0</v>
+        <v>191</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>22</v>
+        <v>143</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="0" t="n">
-        <v>0</v>
+        <v>233</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>7</v>
+        <v>143</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="0" t="n">
-        <v>0</v>
+        <v>189</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>74</v>
+        <v>143</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="0" t="n">
-        <v>0</v>
+        <v>236</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>22</v>
+        <v>126</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="0" t="n">
-        <v>0</v>
+        <v>238</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>22</v>
+        <v>143</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" s="0" t="n">
-        <v>0</v>
+        <v>240</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>117</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>22</v>
+        <v>107</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" s="0" t="n">
-        <v>0</v>
+        <v>186</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>117</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>76</v>
+        <v>143</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" s="0" t="n">
-        <v>0</v>
+        <v>183</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>107</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>10</v>
+        <v>107</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" s="0" t="n">
-        <v>0</v>
+        <v>245</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>117</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>80</v>
+        <v>143</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" s="0" t="n">
-        <v>0</v>
+        <v>248</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>47</v>
+        <v>117</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" s="0" t="n">
-        <v>0</v>
+        <v>158</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>107</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>22</v>
+        <v>143</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="0" t="n">
-        <v>0</v>
+        <v>251</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>107</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>22</v>
+        <v>143</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" s="0" t="n">
-        <v>0</v>
+        <v>253</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>83</v>
+        <v>107</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C54" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" s="0" t="n">
-        <v>0</v>
+        <v>255</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>107</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>83</v>
+        <v>143</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" s="0" t="n">
-        <v>0</v>
+        <v>139</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>107</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>30</v>
+        <v>143</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G56" s="0" t="n">
-        <v>0</v>
+        <v>259</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>7</v>
+        <v>107</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="B57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" s="0" t="n">
-        <v>0</v>
+        <v>261</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>107</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>18</v>
+        <v>143</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="B58" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C58" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" s="0" t="n">
-        <v>0</v>
+        <v>264</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>107</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>74</v>
+        <v>143</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B59" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" s="0" t="n">
-        <v>0</v>
+        <v>266</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>107</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>83</v>
+        <v>143</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B60" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C60" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" s="0" t="n">
-        <v>0</v>
+        <v>268</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>107</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>5</v>
+        <v>143</v>
+      </c>
+      <c r="I60" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C61" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" s="0" t="n">
-        <v>0</v>
+        <v>270</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>107</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>22</v>
+        <v>143</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H63" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I63" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H64" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I64" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J64" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H65" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I65" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H67" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I67" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H68" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I68" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J68" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H69" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I69" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J69" s="0" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/app/helper/excel/2020_02_21_covid19_country.xlsx
+++ b/app/helper/excel/2020_02_21_covid19_country.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="2020_02_21_covid19_country" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,6 +16,7 @@
     <sheet name="2020_02_27_covid19" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="2020_02_29_covid19" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="2020_03_01_covid19" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="2020_03_02_covid19" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="316">
   <si>
     <t xml:space="preserve">country</t>
   </si>
@@ -885,6 +886,96 @@
   </si>
   <si>
     <t xml:space="preserve">အာမေးနီးယား</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၈၀၀၂၆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၀၂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၉၁၂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၃၂၃၃၉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၄၄၇၇၅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၇၁၁၀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၄၃၃၅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၅၉၉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၃၂၇၉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၇၀၄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၅၈၀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၅၀၁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၅၂၃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၁၄၄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၉၁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၅၆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၀၈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၅၀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၃၄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၃၀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၁၆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၈၈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၈၆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၈၄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">အင်ဒိုနီးရှား</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ပေါ်တူဂီ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">အန်ဒိုရာ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၆၉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၇၀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၇၂</t>
   </si>
 </sst>
 </file>
@@ -987,7 +1078,7 @@
       <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.42"/>
@@ -1479,7 +1570,7 @@
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.36"/>
@@ -2391,7 +2482,7 @@
       <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.58"/>
@@ -3407,7 +3498,7 @@
       <selection pane="topLeft" activeCell="M15" activeCellId="0" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4523,7 +4614,7 @@
       <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -5717,7 +5808,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -7093,7 +7184,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -8699,8 +8790,2240 @@
   </sheetPr>
   <dimension ref="A1:J69"/>
   <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L19" activeCellId="0" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I60" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H63" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I63" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H64" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I64" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J64" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H65" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I65" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H67" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I67" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H68" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I68" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J68" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H69" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I69" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J69" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J72"/>
+  <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L19" activeCellId="0" sqref="L19"/>
+      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8745,25 +11068,25 @@
         <v>108</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>109</v>
+        <v>286</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>110</v>
+        <v>287</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>111</v>
+        <v>288</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>112</v>
+        <v>189</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>113</v>
+        <v>289</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>114</v>
+        <v>290</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>115</v>
+        <v>291</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>116</v>
@@ -8777,25 +11100,25 @@
         <v>118</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>119</v>
+        <v>292</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>120</v>
+        <v>293</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>121</v>
+        <v>200</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>123</v>
+        <v>294</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>124</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>125</v>
+        <v>192</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>116</v>
@@ -8809,19 +11132,19 @@
         <v>127</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>128</v>
+        <v>295</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>132</v>
+        <v>296</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>133</v>
@@ -8841,22 +11164,22 @@
         <v>136</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>137</v>
+        <v>297</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>138</v>
+        <v>298</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>139</v>
+        <v>280</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>141</v>
+        <v>299</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>142</v>
+        <v>300</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>143</v>
@@ -8905,22 +11228,22 @@
         <v>151</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>152</v>
+        <v>301</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>150</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>153</v>
+        <v>302</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>155</v>
@@ -8937,10 +11260,10 @@
         <v>156</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>157</v>
+        <v>303</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>158</v>
+        <v>287</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>143</v>
@@ -8949,7 +11272,7 @@
         <v>143</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>159</v>
+        <v>304</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>160</v>
@@ -8963,66 +11286,66 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>163</v>
+        <v>305</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>154</v>
+        <v>306</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9036,7 +11359,7 @@
         <v>172</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>117</v>
@@ -9062,31 +11385,31 @@
         <v>140</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>175</v>
+        <v>307</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>176</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9094,31 +11417,31 @@
         <v>170</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>178</v>
+        <v>308</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="I13" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>107</v>
-      </c>
       <c r="J13" s="0" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9126,13 +11449,13 @@
         <v>181</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>183</v>
+        <v>261</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>143</v>
@@ -9141,7 +11464,7 @@
         <v>143</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>183</v>
+        <v>261</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>143</v>
@@ -9158,13 +11481,13 @@
         <v>184</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>143</v>
@@ -9173,7 +11496,7 @@
         <v>143</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>143</v>
@@ -9193,10 +11516,10 @@
         <v>188</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>107</v>
@@ -9205,7 +11528,7 @@
         <v>107</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>124</v>
@@ -9228,7 +11551,7 @@
         <v>191</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>107</v>
@@ -9257,10 +11580,10 @@
         <v>194</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>143</v>
@@ -9269,7 +11592,7 @@
         <v>143</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>161</v>
@@ -9286,31 +11609,31 @@
         <v>195</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>197</v>
+        <v>124</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9318,31 +11641,31 @@
         <v>155</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="I20" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9350,10 +11673,10 @@
         <v>201</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>121</v>
+        <v>207</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>143</v>
@@ -9365,16 +11688,16 @@
         <v>143</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9382,10 +11705,10 @@
         <v>121</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>143</v>
@@ -9397,16 +11720,16 @@
         <v>143</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9417,10 +11740,10 @@
         <v>204</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>143</v>
@@ -9429,7 +11752,7 @@
         <v>143</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>143</v>
@@ -9446,10 +11769,10 @@
         <v>205</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>143</v>
@@ -9461,16 +11784,16 @@
         <v>143</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9481,10 +11804,10 @@
         <v>208</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>143</v>
@@ -9493,7 +11816,7 @@
         <v>143</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>143</v>
@@ -9545,10 +11868,10 @@
         <v>212</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>143</v>
@@ -9557,7 +11880,7 @@
         <v>143</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>143</v>
@@ -9577,7 +11900,7 @@
         <v>213</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>143</v>
@@ -9589,7 +11912,7 @@
         <v>143</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>143</v>
@@ -9638,13 +11961,13 @@
         <v>197</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>125</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>143</v>
@@ -9653,10 +11976,10 @@
         <v>143</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="I30" s="0" t="s">
         <v>143</v>
@@ -9670,7 +11993,7 @@
         <v>124</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>125</v>
@@ -9691,10 +12014,10 @@
         <v>143</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9702,28 +12025,28 @@
         <v>218</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="D32" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I32" s="0" t="s">
         <v>107</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>143</v>
       </c>
       <c r="J32" s="0" t="s">
         <v>135</v>
@@ -9734,16 +12057,16 @@
         <v>154</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>220</v>
+        <v>281</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>143</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>143</v>
@@ -9755,7 +12078,7 @@
         <v>143</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="J33" s="0" t="s">
         <v>135</v>
@@ -9766,31 +12089,31 @@
         <v>221</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="C34" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G34" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="D34" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>150</v>
-      </c>
       <c r="H34" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="I34" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9798,13 +12121,13 @@
         <v>130</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>143</v>
@@ -9813,10 +12136,10 @@
         <v>143</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="I35" s="0" t="s">
         <v>143</v>
@@ -9830,10 +12153,10 @@
         <v>112</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>143</v>
@@ -9845,7 +12168,7 @@
         <v>143</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>143</v>
@@ -9854,7 +12177,7 @@
         <v>143</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9862,10 +12185,10 @@
         <v>148</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>143</v>
@@ -9877,16 +12200,16 @@
         <v>143</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>143</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>180</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9894,13 +12217,13 @@
         <v>226</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>143</v>
@@ -9909,16 +12232,16 @@
         <v>143</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="I38" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9926,31 +12249,31 @@
         <v>228</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>143</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="I39" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9958,31 +12281,31 @@
         <v>230</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C40" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="H40" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D40" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F40" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="G40" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="H40" s="0" t="s">
-        <v>143</v>
-      </c>
       <c r="I40" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9990,13 +12313,13 @@
         <v>191</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>143</v>
@@ -10005,7 +12328,7 @@
         <v>143</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>143</v>
@@ -10014,7 +12337,7 @@
         <v>143</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10025,7 +12348,7 @@
         <v>234</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>143</v>
@@ -10037,7 +12360,7 @@
         <v>143</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>143</v>
@@ -10054,10 +12377,10 @@
         <v>189</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>143</v>
@@ -10069,7 +12392,7 @@
         <v>143</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>143</v>
@@ -10078,7 +12401,7 @@
         <v>143</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10086,7 +12409,7 @@
         <v>236</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>126</v>
@@ -10095,7 +12418,7 @@
         <v>143</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="F44" s="0" t="s">
         <v>143</v>
@@ -10104,13 +12427,13 @@
         <v>143</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I44" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>116</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10118,13 +12441,13 @@
         <v>238</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>126</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>143</v>
@@ -10142,7 +12465,7 @@
         <v>143</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>144</v>
+        <v>243</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10150,7 +12473,7 @@
         <v>240</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>126</v>
@@ -10165,10 +12488,10 @@
         <v>143</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="I46" s="0" t="s">
         <v>143</v>
@@ -10182,13 +12505,13 @@
         <v>186</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>143</v>
@@ -10197,7 +12520,7 @@
         <v>143</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>143</v>
@@ -10206,7 +12529,7 @@
         <v>143</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>243</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10214,13 +12537,13 @@
         <v>183</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>143</v>
@@ -10229,10 +12552,10 @@
         <v>143</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="I48" s="0" t="s">
         <v>143</v>
@@ -10246,10 +12569,10 @@
         <v>245</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>143</v>
@@ -10261,7 +12584,7 @@
         <v>143</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>143</v>
@@ -10270,7 +12593,7 @@
         <v>143</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>247</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10278,14 +12601,14 @@
         <v>248</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C50" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="D50" s="0" t="s">
-        <v>143</v>
-      </c>
       <c r="E50" s="0" t="s">
         <v>143</v>
       </c>
@@ -10293,16 +12616,16 @@
         <v>143</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="I50" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10310,31 +12633,31 @@
         <v>158</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C51" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="H51" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="D51" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="E51" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F51" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="G51" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="H51" s="0" t="s">
-        <v>143</v>
-      </c>
       <c r="I51" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10342,13 +12665,13 @@
         <v>251</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C52" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" s="0" t="s">
         <v>107</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>143</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>143</v>
@@ -10360,7 +12683,7 @@
         <v>107</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="I52" s="0" t="s">
         <v>143</v>
@@ -10374,10 +12697,10 @@
         <v>253</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>143</v>
@@ -10389,16 +12712,16 @@
         <v>143</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="I53" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>165</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10406,13 +12729,13 @@
         <v>255</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>143</v>
@@ -10421,16 +12744,16 @@
         <v>143</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="I54" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10438,13 +12761,13 @@
         <v>139</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>143</v>
@@ -10453,16 +12776,16 @@
         <v>143</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>143</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>243</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10470,13 +12793,13 @@
         <v>259</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>260</v>
+        <v>311</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>143</v>
@@ -10485,16 +12808,16 @@
         <v>143</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="I56" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>243</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10502,7 +12825,7 @@
         <v>261</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>107</v>
@@ -10526,7 +12849,7 @@
         <v>143</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>263</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10534,7 +12857,7 @@
         <v>264</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>265</v>
+        <v>312</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>107</v>
@@ -10566,7 +12889,7 @@
         <v>266</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>107</v>
@@ -10595,10 +12918,10 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>268</v>
+        <v>158</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>107</v>
@@ -10622,15 +12945,15 @@
         <v>143</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>263</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>270</v>
+        <v>179</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>107</v>
@@ -10645,30 +12968,30 @@
         <v>143</v>
       </c>
       <c r="G61" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H61" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="H61" s="0" t="s">
-        <v>143</v>
-      </c>
       <c r="I61" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>107</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>143</v>
@@ -10686,15 +13009,15 @@
         <v>143</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>135</v>
+        <v>257</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>173</v>
+        <v>274</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>107</v>
@@ -10718,15 +13041,15 @@
         <v>143</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>135</v>
+        <v>263</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>107</v>
@@ -10741,30 +13064,30 @@
         <v>143</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="I64" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>107</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="E65" s="0" t="s">
         <v>143</v>
@@ -10782,15 +13105,15 @@
         <v>143</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>199</v>
+        <v>263</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>107</v>
@@ -10814,15 +13137,15 @@
         <v>143</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>243</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>107</v>
@@ -10843,7 +13166,7 @@
         <v>143</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="J67" s="0" t="s">
         <v>135</v>
@@ -10851,10 +13174,10 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>107</v>
@@ -10869,48 +13192,144 @@
         <v>143</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="I68" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>107</v>
       </c>
       <c r="D69" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H69" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="E69" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F69" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="G69" s="0" t="s">
+      <c r="I69" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J69" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="C70" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="H69" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="I69" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J69" s="0" t="s">
-        <v>135</v>
+      <c r="D70" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G70" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H70" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I70" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J70" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H71" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I71" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J71" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H72" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I72" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J72" s="0" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/app/helper/excel/2020_02_21_covid19_country.xlsx
+++ b/app/helper/excel/2020_02_21_covid19_country.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="2020_02_21_covid19_country" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,6 +17,7 @@
     <sheet name="2020_02_29_covid19" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="2020_03_01_covid19" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="2020_03_02_covid19" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="2020_03_03_covid19" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2848" uniqueCount="355">
   <si>
     <t xml:space="preserve">country</t>
   </si>
@@ -976,6 +977,123 @@
   </si>
   <si>
     <t xml:space="preserve">၇၂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၈၀၁၅၂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၂၆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၉၄၅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၉၈၁၁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၄၇၃၉၆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၆၈၀၈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၅၁၈၆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၈၅၁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၅၁၂၄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၃၃၆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၈၃၅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၈၂၄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၄၃၅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၀၃၆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၈၃၅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၄၉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၆၆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၇၀၆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၆၀၀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၈၃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၃၄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၉၁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၇၆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၈၈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၇၂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၅၂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၁၀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၇၈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၀၃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဂျော်ဒန်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">လတ်ဗီးယား</t>
+  </si>
+  <si>
+    <t xml:space="preserve">မိုရိုကို</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၇၃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၇၅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဆော်ဒီအာရေးဗီးယား</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၇၆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဆီနီဂေါ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">တူနီးရှား</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ယူကရိန်း</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1196,7 @@
       <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.42"/>
@@ -1552,6 +1670,2558 @@
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J79"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I60" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H63" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I63" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H64" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I64" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J64" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H65" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I65" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H67" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I67" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H68" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I68" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J68" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H69" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I69" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J69" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G70" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H70" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I70" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J70" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H71" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I71" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J71" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H72" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I72" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J72" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G73" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H73" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I73" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J73" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G74" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H74" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I74" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J74" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H75" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I75" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J75" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G76" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H76" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I76" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J76" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G77" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I77" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J77" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G78" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H78" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I78" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J78" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G79" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H79" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I79" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J79" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1570,7 +4240,7 @@
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.36"/>
@@ -2482,7 +5152,7 @@
       <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.58"/>
@@ -3498,7 +6168,7 @@
       <selection pane="topLeft" activeCell="M15" activeCellId="0" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4614,7 +7284,7 @@
       <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -5808,7 +8478,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -7184,7 +9854,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -8794,7 +11464,7 @@
       <selection pane="topLeft" activeCell="L19" activeCellId="0" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -11022,11 +13692,11 @@
   </sheetPr>
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">

--- a/app/helper/excel/2020_02_21_covid19_country.xlsx
+++ b/app/helper/excel/2020_02_21_covid19_country.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="2020_02_21_covid19_country" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,6 +18,7 @@
     <sheet name="2020_03_01_covid19" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="2020_03_02_covid19" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="2020_03_03_covid19" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Sheet11" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2848" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3678" uniqueCount="391">
   <si>
     <t xml:space="preserve">country</t>
   </si>
@@ -1094,6 +1095,114 @@
   </si>
   <si>
     <t xml:space="preserve">ယူကရိန်း</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၈၀၂၈၂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၃၁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၉၈၁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၇၃၀၁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၅၀၀၀၀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၆၄၁၆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၅၆၂၁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၅၅၄၅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၉၂၂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၉၂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၂၇၈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၅၅၂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၅၀၂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၂၆၃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၆၀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၂၉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၄၈၈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၁၂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၃၁၉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၇၀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၄၄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၂၈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၉၆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၉၄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၃၂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၁၄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဆွစ်ဇာလန်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၉၃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၈၅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၈၀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">အာဂျင်တီးနား</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၈၁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဖေးရိုးကျွန်းစု</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၈၂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">လစ်တင်စတိုင်း</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ပိုလန်</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1305,7 @@
       <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.42"/>
@@ -1684,8 +1793,2560 @@
   </sheetPr>
   <dimension ref="A1:J79"/>
   <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I60" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H63" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I63" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H64" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I64" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J64" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H65" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I65" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H67" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I67" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H68" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I68" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J68" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H69" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I69" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J69" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G70" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H70" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I70" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J70" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H71" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I71" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J71" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H72" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I72" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J72" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G73" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H73" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I73" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J73" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G74" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H74" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I74" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J74" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H75" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I75" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J75" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G76" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H76" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I76" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J76" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G77" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I77" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J77" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G78" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H78" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I78" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J78" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G79" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H79" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I79" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J79" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J83"/>
+  <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
+      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1730,25 +4391,25 @@
         <v>108</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>116</v>
@@ -1762,22 +4423,22 @@
         <v>118</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>214</v>
+        <v>112</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>192</v>
@@ -1794,22 +4455,22 @@
         <v>136</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>326</v>
+        <v>120</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>176</v>
+        <v>364</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>143</v>
@@ -1826,25 +4487,25 @@
         <v>127</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>143</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>253</v>
+        <v>175</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>135</v>
@@ -1870,13 +4531,13 @@
         <v>107</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>172</v>
+        <v>372</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>149</v>
@@ -1890,10 +4551,10 @@
         <v>151</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>150</v>
@@ -1902,13 +4563,13 @@
         <v>143</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>236</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>116</v>
@@ -1919,28 +4580,28 @@
         <v>146</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>143</v>
+        <v>233</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>135</v>
@@ -1951,28 +4612,28 @@
         <v>161</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>135</v>
@@ -1986,19 +4647,19 @@
         <v>174</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>117</v>
@@ -2015,31 +4676,31 @@
         <v>125</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>154</v>
+        <v>380</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>343</v>
+        <v>166</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2047,31 +4708,31 @@
         <v>140</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>307</v>
+        <v>154</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>166</v>
+        <v>343</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>146</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2082,10 +4743,10 @@
         <v>171</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>172</v>
+        <v>344</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>117</v>
@@ -2094,10 +4755,10 @@
         <v>143</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>173</v>
+        <v>276</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>148</v>
+        <v>226</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>150</v>
@@ -2111,13 +4772,13 @@
         <v>181</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>185</v>
+        <v>381</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>261</v>
+        <v>382</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>143</v>
@@ -2126,16 +4787,16 @@
         <v>143</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>261</v>
+        <v>169</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2143,13 +4804,13 @@
         <v>184</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>248</v>
+        <v>383</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>143</v>
@@ -2158,16 +4819,16 @@
         <v>143</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>248</v>
+        <v>176</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2175,13 +4836,13 @@
         <v>187</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>187</v>
+        <v>125</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>143</v>
@@ -2190,16 +4851,16 @@
         <v>143</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2207,31 +4868,31 @@
         <v>160</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>170</v>
+        <v>251</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2239,31 +4900,31 @@
         <v>193</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>107</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>116</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2271,13 +4932,13 @@
         <v>195</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>143</v>
@@ -2286,16 +4947,16 @@
         <v>143</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2303,31 +4964,31 @@
         <v>155</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2335,28 +4996,28 @@
         <v>201</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>148</v>
+        <v>236</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>198</v>
+        <v>124</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>165</v>
@@ -2367,31 +5028,31 @@
         <v>121</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>209</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2399,13 +5060,13 @@
         <v>198</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>143</v>
@@ -2414,16 +5075,16 @@
         <v>143</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2431,13 +5092,13 @@
         <v>205</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>200</v>
+        <v>112</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>143</v>
@@ -2446,16 +5107,16 @@
         <v>143</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="I24" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>144</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2463,13 +5124,13 @@
         <v>207</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>143</v>
@@ -2478,16 +5139,16 @@
         <v>143</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2495,13 +5156,13 @@
         <v>210</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>207</v>
+        <v>154</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>143</v>
@@ -2510,7 +5171,7 @@
         <v>143</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>207</v>
+        <v>154</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>143</v>
@@ -2519,7 +5180,7 @@
         <v>143</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>209</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2527,13 +5188,13 @@
         <v>200</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>143</v>
@@ -2542,16 +5203,16 @@
         <v>143</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="I27" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2559,13 +5220,13 @@
         <v>192</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>143</v>
@@ -2574,16 +5235,16 @@
         <v>143</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2591,10 +5252,10 @@
         <v>214</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>143</v>
@@ -2606,16 +5267,16 @@
         <v>143</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2626,10 +5287,10 @@
         <v>244</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>143</v>
@@ -2638,13 +5299,13 @@
         <v>143</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>107</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="J30" s="0" t="s">
         <v>135</v>
@@ -2655,13 +5316,13 @@
         <v>124</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>216</v>
+        <v>265</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>143</v>
@@ -2670,16 +5331,16 @@
         <v>143</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="I31" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2687,31 +5348,31 @@
         <v>218</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>222</v>
+        <v>281</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2719,31 +5380,31 @@
         <v>154</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>281</v>
+        <v>211</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2751,13 +5412,13 @@
         <v>221</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>143</v>
@@ -2766,16 +5427,16 @@
         <v>143</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="I34" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2783,13 +5444,13 @@
         <v>130</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>143</v>
@@ -2798,7 +5459,7 @@
         <v>143</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>143</v>
@@ -2807,7 +5468,7 @@
         <v>143</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2815,10 +5476,10 @@
         <v>112</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>143</v>
@@ -2830,16 +5491,16 @@
         <v>143</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="I36" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2847,13 +5508,13 @@
         <v>148</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>143</v>
@@ -2862,30 +5523,30 @@
         <v>143</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="I37" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>148</v>
+        <v>226</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>143</v>
@@ -2894,30 +5555,30 @@
         <v>143</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>143</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>143</v>
@@ -2926,10 +5587,10 @@
         <v>143</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="I39" s="0" t="s">
         <v>143</v>
@@ -2940,16 +5601,16 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>220</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>143</v>
@@ -2958,7 +5619,7 @@
         <v>143</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>143</v>
@@ -2972,16 +5633,16 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>143</v>
@@ -2990,7 +5651,7 @@
         <v>143</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>143</v>
@@ -2999,21 +5660,21 @@
         <v>143</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>143</v>
@@ -3022,30 +5683,30 @@
         <v>143</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="I42" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>143</v>
@@ -3054,62 +5715,62 @@
         <v>143</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>180</v>
+        <v>247</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C44" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G44" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="D44" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="G44" s="0" t="s">
-        <v>122</v>
-      </c>
       <c r="H44" s="0" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="I44" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>143</v>
@@ -3118,7 +5779,7 @@
         <v>143</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>143</v>
@@ -3127,21 +5788,21 @@
         <v>143</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>243</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>143</v>
@@ -3153,27 +5814,27 @@
         <v>131</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="I46" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>143</v>
@@ -3182,27 +5843,27 @@
         <v>143</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="I47" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>245</v>
+        <v>183</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>107</v>
@@ -3214,10 +5875,10 @@
         <v>143</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="I48" s="0" t="s">
         <v>143</v>
@@ -3228,48 +5889,48 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="F49" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="I49" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>158</v>
+        <v>248</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>231</v>
+        <v>311</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>143</v>
@@ -3278,7 +5939,7 @@
         <v>143</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H50" s="0" t="s">
         <v>143</v>
@@ -3292,10 +5953,10 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>251</v>
+        <v>158</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>126</v>
@@ -3304,36 +5965,36 @@
         <v>143</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="F51" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="I51" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>126</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>143</v>
@@ -3342,10 +6003,10 @@
         <v>143</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="I52" s="0" t="s">
         <v>143</v>
@@ -3356,13 +6017,13 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>143</v>
@@ -3374,7 +6035,7 @@
         <v>143</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>143</v>
@@ -3383,21 +6044,21 @@
         <v>143</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>247</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>139</v>
+        <v>255</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>143</v>
@@ -3406,7 +6067,7 @@
         <v>143</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>117</v>
@@ -3415,21 +6076,21 @@
         <v>143</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>243</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>259</v>
+        <v>139</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>310</v>
+        <v>246</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>117</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>143</v>
@@ -3447,21 +6108,21 @@
         <v>143</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>165</v>
+        <v>247</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>311</v>
+        <v>260</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>117</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>143</v>
@@ -3470,27 +6131,27 @@
         <v>143</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>135</v>
+        <v>243</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>143</v>
@@ -3502,7 +6163,7 @@
         <v>143</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>143</v>
@@ -3511,21 +6172,21 @@
         <v>143</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>116</v>
+        <v>263</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>143</v>
@@ -3534,7 +6195,7 @@
         <v>143</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>143</v>
@@ -3543,18 +6204,18 @@
         <v>143</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>143</v>
@@ -3566,7 +6227,7 @@
         <v>143</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>143</v>
@@ -3580,13 +6241,13 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>143</v>
@@ -3598,7 +6259,7 @@
         <v>143</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>143</v>
@@ -3607,18 +6268,18 @@
         <v>143</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>135</v>
+        <v>199</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>179</v>
+        <v>270</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>254</v>
+        <v>352</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>143</v>
@@ -3630,30 +6291,30 @@
         <v>143</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="I61" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>165</v>
+        <v>243</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>107</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>143</v>
@@ -3671,21 +6332,21 @@
         <v>143</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>257</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>274</v>
+        <v>173</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>262</v>
+        <v>312</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>107</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="E63" s="0" t="s">
         <v>143</v>
@@ -3703,15 +6364,15 @@
         <v>143</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>263</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>107</v>
@@ -3740,10 +6401,10 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>345</v>
+        <v>254</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>107</v>
@@ -3758,30 +6419,30 @@
         <v>143</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="I65" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>346</v>
+        <v>256</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>107</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="E66" s="0" t="s">
         <v>143</v>
@@ -3799,15 +6460,15 @@
         <v>143</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>269</v>
+        <v>345</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>107</v>
@@ -3831,15 +6492,15 @@
         <v>143</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>263</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>271</v>
+        <v>346</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>107</v>
@@ -3863,15 +6524,15 @@
         <v>143</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>135</v>
+        <v>263</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>107</v>
@@ -3895,15 +6556,15 @@
         <v>143</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>135</v>
+        <v>263</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>107</v>
@@ -3932,10 +6593,10 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>178</v>
+        <v>314</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>347</v>
+        <v>272</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>107</v>
@@ -3959,15 +6620,15 @@
         <v>143</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>243</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>315</v>
+        <v>178</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>107</v>
@@ -3982,30 +6643,30 @@
         <v>143</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="I72" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>277</v>
+        <v>347</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>107</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="E73" s="0" t="s">
         <v>143</v>
@@ -4023,15 +6684,15 @@
         <v>143</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>199</v>
+        <v>243</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>164</v>
+        <v>348</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>107</v>
@@ -4046,24 +6707,24 @@
         <v>143</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="I74" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>243</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>349</v>
+        <v>164</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>350</v>
+        <v>279</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>107</v>
@@ -4087,15 +6748,15 @@
         <v>143</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>144</v>
+        <v>243</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>107</v>
@@ -4119,7 +6780,7 @@
         <v>143</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4215,6 +6876,134 @@
         <v>143</v>
       </c>
       <c r="J79" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G80" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H80" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I80" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J80" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G81" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H81" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I81" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J81" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F82" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G82" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H82" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I82" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J82" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G83" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H83" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I83" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J83" s="0" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4240,7 +7029,7 @@
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.36"/>
@@ -5152,7 +7941,7 @@
       <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.58"/>
@@ -6168,7 +8957,7 @@
       <selection pane="topLeft" activeCell="M15" activeCellId="0" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -7284,7 +10073,7 @@
       <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -8478,7 +11267,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -9854,7 +12643,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -11464,7 +14253,7 @@
       <selection pane="topLeft" activeCell="L19" activeCellId="0" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -13696,7 +16485,7 @@
       <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">

--- a/app/helper/excel/2020_02_21_covid19_country.xlsx
+++ b/app/helper/excel/2020_02_21_covid19_country.xlsx
@@ -18,7 +18,8 @@
     <sheet name="2020_03_01_covid19" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="2020_03_02_covid19" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="2020_03_03_covid19" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Sheet11" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="2020_03_04_covid19" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="2020_03_05_covid19" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3678" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4558" uniqueCount="428">
   <si>
     <t xml:space="preserve">country</t>
   </si>
@@ -1203,6 +1204,117 @@
   </si>
   <si>
     <t xml:space="preserve">ပိုလန်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၈၀၄၃၀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၃၀၁၃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၅၁၆၄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၅၂၂၅၃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၅၉၅၂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၆၀၈၈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၄၆၇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၅၉၁၃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၃၅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၃၅၁၃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၅၉၁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၀၇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၆၆၇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၇၃၉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၃၀၈၉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၇၀၆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၇၆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၉၅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၄၄၄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၈၂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၄၂၈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၃၇၇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၃၆၁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၃၁၂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၅၉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၅၄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၆၂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၄၂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၁၇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၁၁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၀၅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ချီလီ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဘောစနီးယားနှင့်ဟာဇီဂိုဗီနား</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဟန်ဂေရီ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">စလိုဗီနီးယား</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၈၇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">တောင်အာဖရိက</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1417,7 @@
       <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.42"/>
@@ -1797,7 +1909,7 @@
       <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -4349,6 +4461,2686 @@
       <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I60" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H63" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I63" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H64" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I64" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J64" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H65" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I65" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H67" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I67" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H68" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I68" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J68" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H69" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I69" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J69" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G70" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H70" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I70" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J70" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H71" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I71" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J71" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H72" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I72" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J72" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G73" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H73" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I73" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J73" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G74" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H74" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I74" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J74" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H75" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I75" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J75" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G76" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H76" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I76" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J76" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G77" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I77" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J77" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G78" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H78" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I78" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J78" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G79" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H79" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I79" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J79" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G80" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H80" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I80" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J80" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G81" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H81" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I81" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J81" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F82" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G82" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H82" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I82" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J82" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G83" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H83" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I83" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J83" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J88"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4391,25 +7183,25 @@
         <v>108</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>116</v>
@@ -4423,25 +7215,25 @@
         <v>118</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>328</v>
+        <v>397</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>112</v>
+        <v>191</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>233</v>
+        <v>399</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>192</v>
+        <v>253</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>116</v>
@@ -4455,22 +7247,22 @@
         <v>136</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>120</v>
+        <v>401</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>187</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>143</v>
@@ -4487,25 +7279,25 @@
         <v>127</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>143</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>175</v>
+        <v>402</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>135</v>
@@ -4548,31 +7340,31 @@
         <v>150</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>373</v>
+        <v>409</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>200</v>
+        <v>410</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>236</v>
+        <v>160</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>197</v>
+        <v>117</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4580,28 +7372,28 @@
         <v>146</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>233</v>
+        <v>364</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>117</v>
+        <v>187</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>135</v>
@@ -4612,31 +7404,31 @@
         <v>161</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>377</v>
+        <v>414</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>170</v>
+        <v>236</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4647,25 +7439,25 @@
         <v>174</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>378</v>
+        <v>415</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>337</v>
+        <v>416</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>117</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>135</v>
@@ -4679,19 +7471,19 @@
         <v>177</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>379</v>
+        <v>417</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>380</v>
+        <v>418</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>166</v>
@@ -4711,10 +7503,10 @@
         <v>162</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>342</v>
+        <v>419</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>143</v>
@@ -4723,10 +7515,10 @@
         <v>143</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>146</v>
@@ -4740,31 +7532,31 @@
         <v>170</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>171</v>
+        <v>381</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>344</v>
+        <v>420</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>276</v>
+        <v>402</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>226</v>
+        <v>126</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4772,31 +7564,31 @@
         <v>181</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>381</v>
+        <v>171</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>169</v>
+        <v>280</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>126</v>
+        <v>226</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4807,10 +7599,10 @@
         <v>194</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>383</v>
+        <v>169</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>143</v>
@@ -4819,7 +7611,7 @@
         <v>143</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>176</v>
+        <v>388</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>161</v>
@@ -4836,13 +7628,13 @@
         <v>187</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>143</v>
@@ -4851,7 +7643,7 @@
         <v>143</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>143</v>
@@ -4860,7 +7652,7 @@
         <v>143</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>144</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4868,13 +7660,13 @@
         <v>160</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>143</v>
@@ -4883,7 +7675,7 @@
         <v>143</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>107</v>
@@ -4892,7 +7684,7 @@
         <v>143</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>144</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4900,31 +7692,31 @@
         <v>193</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>158</v>
+        <v>266</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>192</v>
+        <v>266</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4932,13 +7724,13 @@
         <v>195</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>148</v>
+        <v>259</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>143</v>
@@ -4947,16 +7739,16 @@
         <v>143</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>184</v>
+        <v>251</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>198</v>
+        <v>122</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4964,13 +7756,13 @@
         <v>155</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>143</v>
@@ -4979,16 +7771,16 @@
         <v>143</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="I20" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4996,31 +7788,31 @@
         <v>201</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>143</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I21" s="0" t="s">
         <v>107</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5028,31 +7820,31 @@
         <v>121</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>190</v>
+        <v>244</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>197</v>
+        <v>248</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>107</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5060,31 +7852,31 @@
         <v>198</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="E23" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>228</v>
-      </c>
       <c r="H23" s="0" t="s">
-        <v>143</v>
+        <v>218</v>
       </c>
       <c r="I23" s="0" t="s">
         <v>107</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5092,31 +7884,31 @@
         <v>205</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>112</v>
+        <v>238</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>130</v>
+        <v>218</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>209</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5124,13 +7916,13 @@
         <v>207</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>143</v>
@@ -5139,16 +7931,16 @@
         <v>143</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5156,13 +7948,13 @@
         <v>210</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>154</v>
+        <v>226</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>143</v>
@@ -5171,16 +7963,16 @@
         <v>143</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="I26" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5188,31 +7980,31 @@
         <v>200</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>214</v>
+        <v>112</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="I27" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5220,13 +8012,13 @@
         <v>192</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>192</v>
+        <v>112</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>143</v>
@@ -5235,16 +8027,16 @@
         <v>143</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5252,13 +8044,13 @@
         <v>214</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>202</v>
+        <v>265</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>192</v>
+        <v>130</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>143</v>
@@ -5267,16 +8059,16 @@
         <v>143</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5284,13 +8076,13 @@
         <v>197</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>143</v>
@@ -5299,13 +8091,13 @@
         <v>143</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="J30" s="0" t="s">
         <v>135</v>
@@ -5316,13 +8108,13 @@
         <v>124</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>201</v>
+        <v>124</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>143</v>
@@ -5331,16 +8123,16 @@
         <v>143</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="I31" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5348,31 +8140,31 @@
         <v>218</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>281</v>
+        <v>202</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>160</v>
+        <v>214</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5380,31 +8172,31 @@
         <v>154</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>211</v>
+        <v>281</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>143</v>
+        <v>201</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5412,13 +8204,13 @@
         <v>221</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>143</v>
@@ -5427,16 +8219,16 @@
         <v>143</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="I34" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>144</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5444,10 +8236,10 @@
         <v>130</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>143</v>
@@ -5459,16 +8251,16 @@
         <v>143</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="I35" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5476,10 +8268,10 @@
         <v>112</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>143</v>
@@ -5491,16 +8283,16 @@
         <v>143</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="I36" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>144</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5508,10 +8300,10 @@
         <v>148</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>143</v>
@@ -5523,16 +8315,16 @@
         <v>143</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="I37" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5540,10 +8332,10 @@
         <v>226</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>143</v>
@@ -5555,7 +8347,7 @@
         <v>143</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>143</v>
@@ -5564,7 +8356,7 @@
         <v>143</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>209</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5572,13 +8364,13 @@
         <v>228</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>143</v>
@@ -5587,16 +8379,16 @@
         <v>143</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="I39" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5604,13 +8396,13 @@
         <v>230</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>143</v>
@@ -5619,10 +8411,10 @@
         <v>143</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="I40" s="0" t="s">
         <v>143</v>
@@ -5636,10 +8428,10 @@
         <v>191</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>143</v>
@@ -5651,16 +8443,16 @@
         <v>143</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="I41" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>243</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5668,13 +8460,13 @@
         <v>233</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>143</v>
@@ -5683,7 +8475,7 @@
         <v>143</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>143</v>
@@ -5692,7 +8484,7 @@
         <v>143</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5703,7 +8495,7 @@
         <v>258</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>107</v>
@@ -5715,7 +8507,7 @@
         <v>143</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>143</v>
@@ -5732,10 +8524,10 @@
         <v>236</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>143</v>
@@ -5747,10 +8539,10 @@
         <v>143</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="I44" s="0" t="s">
         <v>143</v>
@@ -5764,10 +8556,10 @@
         <v>238</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>252</v>
+        <v>311</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>117</v>
@@ -5779,7 +8571,7 @@
         <v>143</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>143</v>
@@ -5796,10 +8588,10 @@
         <v>240</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>143</v>
@@ -5811,16 +8603,16 @@
         <v>143</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="I46" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5828,13 +8620,13 @@
         <v>186</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>150</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>143</v>
@@ -5843,10 +8635,10 @@
         <v>143</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="I47" s="0" t="s">
         <v>143</v>
@@ -5860,13 +8652,13 @@
         <v>183</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>143</v>
@@ -5875,7 +8667,7 @@
         <v>143</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>143</v>
@@ -5889,16 +8681,16 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>143</v>
@@ -5907,7 +8699,7 @@
         <v>143</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>143</v>
@@ -5916,21 +8708,21 @@
         <v>143</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>248</v>
+        <v>158</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>311</v>
+        <v>225</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>143</v>
@@ -5942,36 +8734,36 @@
         <v>131</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="I50" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>158</v>
+        <v>251</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="F51" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>117</v>
@@ -5980,21 +8772,21 @@
         <v>143</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>143</v>
@@ -6003,7 +8795,7 @@
         <v>143</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>143</v>
@@ -6012,22 +8804,22 @@
         <v>143</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>235</v>
+        <v>350</v>
       </c>
       <c r="C53" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D53" s="0" t="s">
-        <v>143</v>
-      </c>
       <c r="E53" s="0" t="s">
         <v>143</v>
       </c>
@@ -6035,7 +8827,7 @@
         <v>143</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>143</v>
@@ -6044,18 +8836,18 @@
         <v>143</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>255</v>
+        <v>139</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>107</v>
@@ -6067,10 +8859,10 @@
         <v>143</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="I54" s="0" t="s">
         <v>143</v>
@@ -6081,16 +8873,16 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>139</v>
+        <v>259</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>143</v>
@@ -6102,24 +8894,24 @@
         <v>117</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="I55" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>247</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>260</v>
+        <v>352</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>143</v>
@@ -6131,13 +8923,13 @@
         <v>143</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="J56" s="0" t="s">
         <v>243</v>
@@ -6145,45 +8937,45 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="C57" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H57" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="D57" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F57" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="G57" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="H57" s="0" t="s">
-        <v>143</v>
-      </c>
       <c r="I57" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>263</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>310</v>
+        <v>246</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>143</v>
@@ -6195,7 +8987,7 @@
         <v>143</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>143</v>
@@ -6204,21 +8996,21 @@
         <v>143</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>165</v>
+        <v>247</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>143</v>
@@ -6230,27 +9022,27 @@
         <v>117</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="I59" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>135</v>
+        <v>243</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>143</v>
@@ -6259,7 +9051,7 @@
         <v>143</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>143</v>
@@ -6268,18 +9060,18 @@
         <v>143</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>199</v>
+        <v>263</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>270</v>
+        <v>179</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>352</v>
+        <v>277</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>143</v>
@@ -6291,7 +9083,7 @@
         <v>143</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>143</v>
@@ -6300,18 +9092,18 @@
         <v>143</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>243</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>250</v>
+        <v>422</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>143</v>
@@ -6323,7 +9115,7 @@
         <v>143</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>143</v>
@@ -6332,21 +9124,21 @@
         <v>143</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>116</v>
+        <v>247</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>173</v>
+        <v>274</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="E63" s="0" t="s">
         <v>143</v>
@@ -6355,7 +9147,7 @@
         <v>143</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>143</v>
@@ -6364,21 +9156,21 @@
         <v>143</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>285</v>
+        <v>347</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="E64" s="0" t="s">
         <v>143</v>
@@ -6387,7 +9179,7 @@
         <v>143</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>143</v>
@@ -6396,21 +9188,21 @@
         <v>143</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>135</v>
+        <v>243</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>254</v>
+        <v>423</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="E65" s="0" t="s">
         <v>143</v>
@@ -6419,30 +9211,30 @@
         <v>143</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="I65" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>256</v>
+        <v>424</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="E66" s="0" t="s">
         <v>143</v>
@@ -6451,7 +9243,7 @@
         <v>143</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="H66" s="0" t="s">
         <v>143</v>
@@ -6460,21 +9252,21 @@
         <v>143</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>257</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>345</v>
+        <v>425</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="E67" s="0" t="s">
         <v>143</v>
@@ -6483,7 +9275,7 @@
         <v>143</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="H67" s="0" t="s">
         <v>143</v>
@@ -6492,15 +9284,15 @@
         <v>143</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>346</v>
+        <v>250</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>107</v>
@@ -6524,21 +9316,21 @@
         <v>143</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>263</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>107</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="E69" s="0" t="s">
         <v>143</v>
@@ -6556,15 +9348,15 @@
         <v>143</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>263</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>107</v>
@@ -6593,10 +9385,10 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>314</v>
+        <v>178</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>107</v>
@@ -6611,30 +9403,30 @@
         <v>143</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="I71" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>178</v>
+        <v>315</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>107</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="E72" s="0" t="s">
         <v>143</v>
@@ -6652,15 +9444,15 @@
         <v>143</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>135</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>107</v>
@@ -6684,15 +9476,15 @@
         <v>143</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>348</v>
+        <v>164</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>275</v>
+        <v>346</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>107</v>
@@ -6707,24 +9499,24 @@
         <v>143</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="I74" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>116</v>
+        <v>263</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>164</v>
+        <v>349</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>107</v>
@@ -6748,15 +9540,15 @@
         <v>143</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>350</v>
+        <v>271</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>107</v>
@@ -6780,7 +9572,7 @@
         <v>143</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6788,7 +9580,7 @@
         <v>176</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>107</v>
@@ -6803,16 +9595,16 @@
         <v>143</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="I77" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6820,7 +9612,7 @@
         <v>343</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>353</v>
+        <v>273</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>107</v>
@@ -6844,7 +9636,7 @@
         <v>143</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>243</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6852,13 +9644,13 @@
         <v>175</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>354</v>
+        <v>275</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>107</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="E79" s="0" t="s">
         <v>143</v>
@@ -6867,16 +9659,16 @@
         <v>143</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="I79" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6884,7 +9676,7 @@
         <v>384</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>385</v>
+        <v>279</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>107</v>
@@ -6908,7 +9700,7 @@
         <v>143</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6916,13 +9708,13 @@
         <v>386</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>387</v>
+        <v>283</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>107</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="E81" s="0" t="s">
         <v>143</v>
@@ -6931,16 +9723,16 @@
         <v>143</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="I81" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>209</v>
+        <v>116</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6948,7 +9740,7 @@
         <v>388</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>107</v>
@@ -6972,7 +9764,7 @@
         <v>143</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>135</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6980,7 +9772,7 @@
         <v>133</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>390</v>
+        <v>354</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>107</v>
@@ -7005,6 +9797,166 @@
       </c>
       <c r="J83" s="0" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G84" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H84" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I84" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J84" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G85" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H85" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I85" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J85" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G86" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H86" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I86" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J86" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F87" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G87" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H87" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I87" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J87" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F88" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G88" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H88" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I88" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J88" s="0" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -7029,7 +9981,7 @@
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.36"/>
@@ -7941,7 +10893,7 @@
       <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.58"/>
@@ -8957,7 +11909,7 @@
       <selection pane="topLeft" activeCell="M15" activeCellId="0" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -10073,7 +13025,7 @@
       <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -11267,7 +14219,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -12643,7 +15595,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -14253,7 +17205,7 @@
       <selection pane="topLeft" activeCell="L19" activeCellId="0" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -16485,7 +19437,7 @@
       <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">

--- a/app/helper/excel/2020_02_21_covid19_country.xlsx
+++ b/app/helper/excel/2020_02_21_covid19_country.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="2020_02_21_covid19_country" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,6 +18,8 @@
     <sheet name="2020_03_01_covid19" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="2020_03_02_covid19" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="2020_03_03_covid19" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="2020_03_04_covid19" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="2020_03_05_covid19" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2848" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4558" uniqueCount="428">
   <si>
     <t xml:space="preserve">country</t>
   </si>
@@ -1094,6 +1096,225 @@
   </si>
   <si>
     <t xml:space="preserve">ယူကရိန်း</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၈၀၂၈၂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၃၁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၉၈၁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၇၃၀၁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၅၀၀၀၀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၆၄၁၆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၅၆၂၁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၅၅၄၅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၉၂၂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၉၂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၂၇၈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၅၅၂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၅၀၂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၂၆၃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၆၀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၂၉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၄၈၈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၁၂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၃၁၉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၇၀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၄၄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၂၈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၉၆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၉၄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၃၂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၁၄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဆွစ်ဇာလန်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၉၃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၈၅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၈၀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">အာဂျင်တီးနား</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၈၁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဖေးရိုးကျွန်းစု</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၈၂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">လစ်တင်စတိုင်း</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ပိုလန်</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၈၀၄၃၀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၃၀၁၃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၅၁၆၄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၅၂၂၅၃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၅၉၅၂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၆၀၈၈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၄၆၇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၅၉၁၃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၃၅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၃၅၁၃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၅၉၁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၀၇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၆၆၇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၇၃၉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၃၀၈၉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၇၀၆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၇၆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၉၅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၄၄၄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၈၂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၄၂၈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၃၇၇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၃၆၁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၃၁၂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၂၅၉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၅၄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၆၂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၄၂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၁၇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၁၁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၁၀၅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ချီလီ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဘောစနီးယားနှင့်ဟာဇီဂိုဗီနား</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ဟန်ဂေရီ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">စလိုဗီနီးယား</t>
+  </si>
+  <si>
+    <t xml:space="preserve">၈၇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">တောင်အာဖရိက</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1417,7 @@
       <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.42"/>
@@ -1684,8 +1905,5240 @@
   </sheetPr>
   <dimension ref="A1:J79"/>
   <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I60" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H63" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I63" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H64" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I64" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J64" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H65" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I65" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H67" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I67" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H68" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I68" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J68" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H69" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I69" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J69" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G70" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H70" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I70" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J70" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H71" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I71" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J71" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H72" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I72" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J72" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G73" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H73" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I73" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J73" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G74" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H74" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I74" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J74" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H75" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I75" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J75" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G76" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H76" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I76" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J76" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G77" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I77" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J77" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G78" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H78" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I78" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J78" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G79" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H79" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I79" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J79" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J83"/>
+  <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
+      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="H59" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I60" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H63" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I63" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H64" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I64" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J64" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H65" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I65" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H67" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I67" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H68" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I68" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J68" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H69" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I69" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J69" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G70" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H70" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I70" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J70" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H71" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I71" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J71" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H72" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I72" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J72" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G73" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H73" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I73" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J73" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G74" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H74" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I74" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J74" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H75" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I75" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J75" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G76" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H76" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I76" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J76" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G77" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I77" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J77" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G78" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H78" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I78" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J78" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G79" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H79" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I79" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J79" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G80" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H80" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I80" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J80" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G81" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H81" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I81" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J81" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F82" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G82" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H82" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I82" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J82" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G83" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H83" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I83" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J83" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J88"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1730,25 +7183,25 @@
         <v>108</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>316</v>
+        <v>391</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>317</v>
+        <v>369</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>318</v>
+        <v>392</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>221</v>
+        <v>154</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>319</v>
+        <v>393</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>321</v>
+        <v>395</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>116</v>
@@ -1762,25 +7215,25 @@
         <v>118</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>322</v>
+        <v>396</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>323</v>
+        <v>397</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>324</v>
+        <v>398</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>130</v>
+        <v>399</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>192</v>
+        <v>253</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>116</v>
@@ -1794,22 +7247,22 @@
         <v>136</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>325</v>
+        <v>400</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>326</v>
+        <v>401</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>176</v>
+        <v>402</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>327</v>
+        <v>403</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>328</v>
+        <v>404</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>143</v>
@@ -1826,25 +7279,25 @@
         <v>127</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>329</v>
+        <v>405</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>143</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>253</v>
+        <v>402</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>330</v>
+        <v>406</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>331</v>
+        <v>407</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>332</v>
+        <v>408</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>135</v>
@@ -1870,13 +7323,13 @@
         <v>107</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>172</v>
+        <v>372</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>149</v>
@@ -1887,31 +7340,31 @@
         <v>150</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>335</v>
+        <v>409</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>166</v>
+        <v>410</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>336</v>
+        <v>411</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>236</v>
+        <v>160</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>205</v>
+        <v>117</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1922,25 +7375,25 @@
         <v>167</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>337</v>
+        <v>412</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>143</v>
+        <v>364</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>338</v>
+        <v>413</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>170</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>135</v>
@@ -1951,31 +7404,31 @@
         <v>161</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>339</v>
+        <v>413</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>205</v>
+        <v>124</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>340</v>
+        <v>414</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>160</v>
+        <v>236</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>117</v>
+        <v>197</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1986,25 +7439,25 @@
         <v>174</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>341</v>
+        <v>415</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>154</v>
+        <v>218</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>303</v>
+        <v>416</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>117</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>135</v>
@@ -2015,31 +7468,31 @@
         <v>125</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>342</v>
+        <v>417</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>154</v>
+        <v>418</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>343</v>
+        <v>166</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2047,31 +7500,31 @@
         <v>140</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>344</v>
+        <v>419</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>307</v>
+        <v>148</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>166</v>
+        <v>386</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>146</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2079,31 +7532,31 @@
         <v>170</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>171</v>
+        <v>381</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>172</v>
+        <v>420</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>143</v>
+        <v>195</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>173</v>
+        <v>402</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2111,31 +7564,31 @@
         <v>181</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>261</v>
+        <v>421</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>143</v>
+        <v>226</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2143,13 +7596,13 @@
         <v>184</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>248</v>
+        <v>169</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>143</v>
@@ -2158,16 +7611,16 @@
         <v>143</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>248</v>
+        <v>388</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2175,13 +7628,13 @@
         <v>187</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>240</v>
+        <v>315</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>143</v>
@@ -2190,16 +7643,16 @@
         <v>143</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>238</v>
+        <v>315</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>135</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2207,31 +7660,31 @@
         <v>160</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>170</v>
+        <v>268</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>165</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2239,31 +7692,31 @@
         <v>193</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>189</v>
+        <v>266</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>197</v>
+        <v>266</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2271,13 +7724,13 @@
         <v>195</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>191</v>
+        <v>259</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>143</v>
@@ -2286,16 +7739,16 @@
         <v>143</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>154</v>
+        <v>251</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2303,31 +7756,31 @@
         <v>155</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2335,31 +7788,31 @@
         <v>201</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>148</v>
+        <v>255</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2367,13 +7820,13 @@
         <v>121</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>143</v>
@@ -2382,16 +7835,16 @@
         <v>143</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>154</v>
+        <v>248</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>209</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2399,31 +7852,31 @@
         <v>198</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>146</v>
+        <v>218</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2431,31 +7884,31 @@
         <v>205</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>117</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2466,10 +7919,10 @@
         <v>217</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>143</v>
@@ -2478,7 +7931,7 @@
         <v>143</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>143</v>
@@ -2495,13 +7948,13 @@
         <v>210</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>143</v>
@@ -2510,16 +7963,16 @@
         <v>143</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>207</v>
+        <v>112</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="I26" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>209</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2527,22 +7980,22 @@
         <v>200</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>143</v>
@@ -2551,7 +8004,7 @@
         <v>143</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2559,13 +8012,13 @@
         <v>192</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>143</v>
@@ -2574,16 +8027,16 @@
         <v>143</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>160</v>
+        <v>214</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2591,13 +8044,13 @@
         <v>214</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>211</v>
+        <v>265</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>143</v>
@@ -2606,16 +8059,16 @@
         <v>143</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="I29" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2623,13 +8076,13 @@
         <v>197</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>131</v>
+        <v>198</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>143</v>
@@ -2638,10 +8091,10 @@
         <v>143</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>170</v>
+        <v>218</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="I30" s="0" t="s">
         <v>143</v>
@@ -2655,13 +8108,13 @@
         <v>124</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>143</v>
@@ -2670,16 +8123,16 @@
         <v>143</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="I31" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2687,10 +8140,10 @@
         <v>218</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>143</v>
@@ -2702,13 +8155,13 @@
         <v>143</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>140</v>
+        <v>205</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="J32" s="0" t="s">
         <v>144</v>
@@ -2722,10 +8175,10 @@
         <v>281</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>107</v>
@@ -2734,13 +8187,13 @@
         <v>143</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>143</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="J33" s="0" t="s">
         <v>135</v>
@@ -2751,10 +8204,10 @@
         <v>221</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>143</v>
@@ -2766,16 +8219,16 @@
         <v>143</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="I34" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>116</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2783,13 +8236,13 @@
         <v>130</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>143</v>
@@ -2798,16 +8251,16 @@
         <v>143</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="I35" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2815,10 +8268,10 @@
         <v>112</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>143</v>
@@ -2830,7 +8283,7 @@
         <v>143</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>143</v>
@@ -2839,7 +8292,7 @@
         <v>143</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>135</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2847,13 +8300,13 @@
         <v>148</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>143</v>
@@ -2862,10 +8315,10 @@
         <v>143</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="I37" s="0" t="s">
         <v>143</v>
@@ -2876,16 +8329,16 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>148</v>
+        <v>226</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>143</v>
@@ -2894,27 +8347,27 @@
         <v>143</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>143</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>143</v>
@@ -2926,30 +8379,30 @@
         <v>143</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="I39" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>143</v>
@@ -2958,10 +8411,10 @@
         <v>143</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="I40" s="0" t="s">
         <v>143</v>
@@ -2972,16 +8425,16 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>143</v>
@@ -2990,27 +8443,27 @@
         <v>143</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="I41" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>209</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>143</v>
@@ -3022,30 +8475,30 @@
         <v>143</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="I42" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>143</v>
@@ -3054,27 +8507,27 @@
         <v>143</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>180</v>
+        <v>247</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>143</v>
@@ -3086,30 +8539,30 @@
         <v>143</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="I44" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>242</v>
+        <v>311</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>143</v>
@@ -3118,7 +8571,7 @@
         <v>143</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>143</v>
@@ -3127,21 +8580,21 @@
         <v>143</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>243</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>143</v>
@@ -3150,7 +8603,7 @@
         <v>143</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>143</v>
@@ -3159,21 +8612,21 @@
         <v>143</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>143</v>
@@ -3182,7 +8635,7 @@
         <v>143</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>143</v>
@@ -3191,21 +8644,21 @@
         <v>143</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>245</v>
+        <v>183</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>143</v>
@@ -3214,10 +8667,10 @@
         <v>143</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="I48" s="0" t="s">
         <v>143</v>
@@ -3231,31 +8684,31 @@
         <v>248</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>143</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="F49" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="I49" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3263,10 +8716,10 @@
         <v>158</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>143</v>
@@ -3278,16 +8731,16 @@
         <v>143</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="I50" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3295,13 +8748,13 @@
         <v>251</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>143</v>
@@ -3310,10 +8763,10 @@
         <v>143</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="I51" s="0" t="s">
         <v>143</v>
@@ -3327,10 +8780,10 @@
         <v>253</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>107</v>
@@ -3342,16 +8795,16 @@
         <v>143</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="I52" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3359,13 +8812,13 @@
         <v>255</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>246</v>
+        <v>350</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>143</v>
@@ -3374,7 +8827,7 @@
         <v>143</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>143</v>
@@ -3383,7 +8836,7 @@
         <v>143</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>247</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3391,13 +8844,13 @@
         <v>139</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>143</v>
@@ -3406,16 +8859,16 @@
         <v>143</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="I54" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>243</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3423,13 +8876,13 @@
         <v>259</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>310</v>
+        <v>249</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>143</v>
@@ -3441,13 +8894,13 @@
         <v>117</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="I55" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3455,13 +8908,13 @@
         <v>261</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>311</v>
+        <v>352</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>143</v>
@@ -3470,7 +8923,7 @@
         <v>143</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>143</v>
@@ -3479,7 +8932,7 @@
         <v>143</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>135</v>
+        <v>243</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3487,31 +8940,31 @@
         <v>264</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>143</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="F57" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="I57" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>116</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3519,13 +8972,13 @@
         <v>266</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>312</v>
+        <v>246</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>143</v>
@@ -3534,7 +8987,7 @@
         <v>143</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>143</v>
@@ -3543,7 +8996,7 @@
         <v>143</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>135</v>
+        <v>247</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3551,13 +9004,13 @@
         <v>268</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>143</v>
@@ -3566,16 +9019,16 @@
         <v>143</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="I59" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>135</v>
+        <v>243</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3583,13 +9036,13 @@
         <v>270</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>143</v>
@@ -3598,7 +9051,7 @@
         <v>143</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>143</v>
@@ -3607,7 +9060,7 @@
         <v>143</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>135</v>
+        <v>263</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3615,10 +9068,10 @@
         <v>179</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>143</v>
@@ -3630,16 +9083,16 @@
         <v>143</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="I61" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3647,13 +9100,13 @@
         <v>173</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>256</v>
+        <v>422</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>143</v>
@@ -3662,7 +9115,7 @@
         <v>143</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>143</v>
@@ -3671,7 +9124,7 @@
         <v>143</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3679,10 +9132,10 @@
         <v>274</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>143</v>
@@ -3694,7 +9147,7 @@
         <v>143</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>143</v>
@@ -3703,7 +9156,7 @@
         <v>143</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>263</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3711,13 +9164,13 @@
         <v>276</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>267</v>
+        <v>347</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="E64" s="0" t="s">
         <v>143</v>
@@ -3726,7 +9179,7 @@
         <v>143</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>143</v>
@@ -3735,7 +9188,7 @@
         <v>143</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>135</v>
+        <v>243</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3743,13 +9196,13 @@
         <v>278</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>345</v>
+        <v>423</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="E65" s="0" t="s">
         <v>143</v>
@@ -3758,7 +9211,7 @@
         <v>143</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="H65" s="0" t="s">
         <v>143</v>
@@ -3767,7 +9220,7 @@
         <v>143</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3775,10 +9228,10 @@
         <v>280</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>346</v>
+        <v>424</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>143</v>
@@ -3790,7 +9243,7 @@
         <v>143</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="H66" s="0" t="s">
         <v>143</v>
@@ -3799,7 +9252,7 @@
         <v>143</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>263</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3807,13 +9260,13 @@
         <v>282</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>269</v>
+        <v>425</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="E67" s="0" t="s">
         <v>143</v>
@@ -3822,7 +9275,7 @@
         <v>143</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="H67" s="0" t="s">
         <v>143</v>
@@ -3831,7 +9284,7 @@
         <v>143</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>263</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3839,7 +9292,7 @@
         <v>284</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>107</v>
@@ -3863,7 +9316,7 @@
         <v>143</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3871,13 +9324,13 @@
         <v>313</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>107</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="E69" s="0" t="s">
         <v>143</v>
@@ -3903,7 +9356,7 @@
         <v>314</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>107</v>
@@ -3935,7 +9388,7 @@
         <v>178</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>347</v>
+        <v>254</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>107</v>
@@ -3950,16 +9403,16 @@
         <v>143</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="I71" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>243</v>
+        <v>165</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3967,13 +9420,13 @@
         <v>315</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>107</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="E72" s="0" t="s">
         <v>143</v>
@@ -3982,16 +9435,16 @@
         <v>143</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="I72" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>116</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3999,13 +9452,13 @@
         <v>348</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>277</v>
+        <v>345</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>107</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="E73" s="0" t="s">
         <v>143</v>
@@ -4023,7 +9476,7 @@
         <v>143</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4031,7 +9484,7 @@
         <v>164</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>279</v>
+        <v>346</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>107</v>
@@ -4055,7 +9508,7 @@
         <v>143</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4063,7 +9516,7 @@
         <v>349</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>350</v>
+        <v>269</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>107</v>
@@ -4087,7 +9540,7 @@
         <v>143</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>144</v>
+        <v>263</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4095,7 +9548,7 @@
         <v>351</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>352</v>
+        <v>271</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>107</v>
@@ -4119,7 +9572,7 @@
         <v>143</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>243</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4127,7 +9580,7 @@
         <v>176</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>107</v>
@@ -4142,16 +9595,16 @@
         <v>143</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="I77" s="0" t="s">
         <v>143</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4159,7 +9612,7 @@
         <v>343</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>353</v>
+        <v>273</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>107</v>
@@ -4183,7 +9636,7 @@
         <v>143</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>243</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4191,31 +9644,319 @@
         <v>175</v>
       </c>
       <c r="B79" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G79" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H79" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I79" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J79" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G80" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H80" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I80" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J80" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G81" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H81" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="I81" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J81" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F82" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G82" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H82" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I82" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J82" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B83" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="C79" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="D79" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="E79" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F79" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="G79" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="H79" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="I79" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="J79" s="0" t="s">
+      <c r="C83" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G83" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H83" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I83" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J83" s="0" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G84" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H84" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I84" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J84" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G85" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H85" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I85" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J85" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G86" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H86" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I86" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J86" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F87" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G87" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H87" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I87" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J87" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F88" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G88" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="H88" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="I88" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="J88" s="0" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -4240,7 +9981,7 @@
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.36"/>
@@ -5152,7 +10893,7 @@
       <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.58"/>
@@ -6168,7 +11909,7 @@
       <selection pane="topLeft" activeCell="M15" activeCellId="0" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -7284,7 +13025,7 @@
       <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -8478,7 +14219,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -9854,7 +15595,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -11464,7 +17205,7 @@
       <selection pane="topLeft" activeCell="L19" activeCellId="0" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -13696,7 +19437,7 @@
       <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
